--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2325.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2325.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.06870539671833</v>
+        <v>1.406915068626404</v>
       </c>
       <c r="B1">
-        <v>3.066456339897901</v>
+        <v>1.48189389705658</v>
       </c>
       <c r="C1">
-        <v>1.261025928581044</v>
+        <v>1.3862384557724</v>
       </c>
       <c r="D1">
-        <v>0.8570385552960299</v>
+        <v>1.448469161987305</v>
       </c>
       <c r="E1">
-        <v>0.7165041427512299</v>
+        <v>1.049007534980774</v>
       </c>
     </row>
   </sheetData>
